--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>105314.0710675227</v>
+        <v>119040.4292049407</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26427,37 +26429,37 @@
         <v>60523.96800341976</v>
       </c>
       <c r="F4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="G4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="H4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="I4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="J4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="K4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="L4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="M4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="N4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
       <c r="O4" t="n">
         <v>60523.96800341976</v>
       </c>
       <c r="P4" t="n">
-        <v>60523.96800341976</v>
+        <v>60523.96800341977</v>
       </c>
     </row>
     <row r="5">
@@ -26528,40 +26530,40 @@
         <v>-28252.22972342764</v>
       </c>
       <c r="E6" t="n">
-        <v>-82915.03195856446</v>
+        <v>-82915.03195856452</v>
       </c>
       <c r="F6" t="n">
-        <v>50184.96804143554</v>
+        <v>50184.96804143549</v>
       </c>
       <c r="G6" t="n">
         <v>50184.96804143554</v>
       </c>
       <c r="H6" t="n">
-        <v>50184.96804143554</v>
+        <v>50184.96804143553</v>
       </c>
       <c r="I6" t="n">
         <v>50184.96804143554</v>
       </c>
       <c r="J6" t="n">
-        <v>50184.96804143554</v>
+        <v>50184.96804143552</v>
       </c>
       <c r="K6" t="n">
-        <v>50184.96804143554</v>
+        <v>50184.96804143551</v>
       </c>
       <c r="L6" t="n">
-        <v>50184.96804143554</v>
+        <v>50184.96804143552</v>
       </c>
       <c r="M6" t="n">
-        <v>50184.96804143554</v>
+        <v>50184.96804143552</v>
       </c>
       <c r="N6" t="n">
-        <v>50184.96804143554</v>
+        <v>50184.96804143552</v>
       </c>
       <c r="O6" t="n">
         <v>50184.96804143554</v>
       </c>
       <c r="P6" t="n">
-        <v>50184.96804143554</v>
+        <v>50184.96804143553</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119040.4292049407</v>
+        <v>-6069.469592535788</v>
       </c>
     </row>
     <row r="7">
@@ -26429,37 +26429,37 @@
         <v>60523.96800341976</v>
       </c>
       <c r="F4" t="n">
+        <v>60523.96800341976</v>
+      </c>
+      <c r="G4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>60523.96800341976</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>60523.96800341976</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>60523.96800341976</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>60523.96800341976</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>60523.96800341977</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>60523.96800341976</v>
-      </c>
-      <c r="P4" t="n">
-        <v>60523.96800341977</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342764</v>
+        <v>-43402.90369346239</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342764</v>
+        <v>-43402.9036934624</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342764</v>
+        <v>-43402.90369346242</v>
       </c>
       <c r="E6" t="n">
-        <v>-82915.03195856452</v>
+        <v>-97725.04879767839</v>
       </c>
       <c r="F6" t="n">
-        <v>50184.96804143549</v>
+        <v>35374.95120232165</v>
       </c>
       <c r="G6" t="n">
-        <v>50184.96804143554</v>
+        <v>35374.95120232164</v>
       </c>
       <c r="H6" t="n">
-        <v>50184.96804143553</v>
+        <v>35374.95120232165</v>
       </c>
       <c r="I6" t="n">
-        <v>50184.96804143554</v>
+        <v>35374.95120232164</v>
       </c>
       <c r="J6" t="n">
-        <v>50184.96804143552</v>
+        <v>35374.95120232165</v>
       </c>
       <c r="K6" t="n">
-        <v>50184.96804143551</v>
+        <v>35374.95120232164</v>
       </c>
       <c r="L6" t="n">
-        <v>50184.96804143552</v>
+        <v>35374.95120232165</v>
       </c>
       <c r="M6" t="n">
-        <v>50184.96804143552</v>
+        <v>35374.95120232164</v>
       </c>
       <c r="N6" t="n">
-        <v>50184.96804143552</v>
+        <v>35374.95120232165</v>
       </c>
       <c r="O6" t="n">
-        <v>50184.96804143554</v>
+        <v>35374.95120232164</v>
       </c>
       <c r="P6" t="n">
-        <v>50184.96804143553</v>
+        <v>35374.95120232165</v>
       </c>
     </row>
   </sheetData>
